--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Materials\Chuyên đề\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PythonProject\ChuyenDeDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3CFDC-65C0-4D3F-A56B-7DA96CB4E7F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDCCE93-31BA-4270-B47C-E7297189E329}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{AF5EEA8B-D7F3-41CA-91D7-08DAF86D5EE3}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{AF5EEA8B-D7F3-41CA-91D7-08DAF86D5EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Xây dựng model cho phát hiện tin bài trùng lặp</t>
   </si>
   <si>
-    <t>Thông tin cụ thể của tin bài</t>
-  </si>
-  <si>
     <t>Bóc tách địa chỉ của bất động sản</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Chức năng bình luận (1 ngày)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin cụ thể của tin bài</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC59E97-7EDD-485E-8512-42216B0E1905}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,22 +561,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,22 +591,22 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,47 +616,47 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,47 +666,47 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -718,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B51A31-59F7-43AE-8F0E-BD74F5AA355A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -726,62 +726,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -793,60 +793,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF3D856-2430-45B4-B02F-FD67C7DFC987}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
